--- a/final_results/2/github/github_ci_statistics.xlsx
+++ b/final_results/2/github/github_ci_statistics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>587</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>2.77</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>495</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>3508</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>312</v>
       </c>
       <c r="F3" t="n">
-        <v>4.33</v>
+        <v>7.09</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -522,21 +522,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>4.89</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_results/2/github/github_ci_statistics.xlsx
+++ b/final_results/2/github/github_ci_statistics.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C2" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>94</v>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C3" t="n">
-        <v>3539</v>
+        <v>3562</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>312</v>
       </c>
       <c r="F3" t="n">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
